--- a/Scraping23/src/test/resources/excelsheets/pcosrecipeAllergyRecipes.xlsx
+++ b/Scraping23/src/test/resources/excelsheets/pcosrecipeAllergyRecipes.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="pcos" r:id="rId5" sheetId="2"/>
+    <sheet name="pcos" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="677">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -103,7 +101,7 @@
 Sodium 12.9 mg</t>
   </si>
   <si>
-    <t>HyperTension</t>
+    <t>pcos</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/masala-chawli-3883r</t>
@@ -113,6 +111,9 @@
   </si>
   <si>
     <t>Cabbage Masala ( Healthy Sabzi)</t>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
   <si>
     <t xml:space="preserve">4 cups shredded cabbage
@@ -612,6 +613,9 @@
   </si>
   <si>
     <t>Usal ( Healthy Subzi)</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup mixed sprouts (moong , chana , matki etc.)
@@ -810,6 +814,9 @@
     <t>Oats and Vegetable Broth</t>
   </si>
   <si>
+    <t>Vegan</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup quick cooking rolled oats
 2 tbsp finely chopped tomatoes
 2 tbsp finely chopped capsicum
@@ -917,15 +924,6 @@
 When the bubbles form, mix gently.
 Grease the idli moulds using oil, put spoonfuls of the batter into idli moulds and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
 Cool slightly, demould and serve immediately with sambhar and healthy coconut chutney.</t>
-  </si>
-  <si>
-    <t>Energy 26 cal
-Protein 1.8 g
-Carbohydrates 4.2 g
-Fiber 0.8 g
-Fat 0.2 g
-Cholesterol 0 mg
-Sodium 8.6 mg</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/moong-dal-and-spinach-idli-38991r</t>
@@ -1283,6 +1281,9 @@
     <t>Oats Upma ( Breakfast Recipes)</t>
   </si>
   <si>
+    <t>Jain</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 cups quick cooking rolled oats
 3 tsp olive oil or oil
 1 tsp turmeric powder (haldi)
@@ -1429,15 +1430,6 @@
 Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp of oil, till golden brown spots appear on both the sides.
 Repeat steps 3 and 4 to make 9 more parathas.
 Serve the paneer tamatar paratha immediately.</t>
-  </si>
-  <si>
-    <t>Energy 80 cal
-Protein 2.8 g
-Carbohydrates 15.1 g
-Fiber 2.7 g
-Fat 1.2 g
-Cholesterol 0 mg
-Sodium 9.7 mg</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/paneer-tamatar-paratha-32997r</t>
@@ -1956,15 +1948,6 @@
 Serve the masoor dal and paneer soup immediately.</t>
   </si>
   <si>
-    <t>Energy 89 cal
-Protein 4.9 g
-Carbohydrates 11.1 g
-Fiber 1.6 g
-Fat 2.7 g
-Cholesterol 0 mg
-Sodium 34.5 mg</t>
-  </si>
-  <si>
     <t>https://www.tarladalal.com/masoor-dal-and-paneer-soup-4631r</t>
   </si>
   <si>
@@ -2093,15 +2076,6 @@
 Blend 1 tbsp of garden cress seeds in a mixer to get 1½ tbsp of garden cress seeds powder.</t>
   </si>
   <si>
-    <t>Energy 96 cal
-Protein 3.3 g
-Carbohydrates 12 g
-Fiber 2.4 g
-Fat 4.1 g
-Cholesterol 0 mg
-Sodium 5.7 mg</t>
-  </si>
-  <si>
     <t>https://www.tarladalal.com/aliv-paratha-halim-vegetable-paratha-35092r</t>
   </si>
   <si>
@@ -2694,6 +2668,9 @@
     <t>Grilled Cauliflower, Roasted Cauliflower with Herbs</t>
   </si>
   <si>
+    <t>veg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 1/2 cups sliced cauliflower
 1 tsp grated garlic (lehsun)
 2 tsp dry red chilli flakes (paprika)
@@ -2830,15 +2807,6 @@
 Heat a non-stick tava (griddle) and cook the paratha, using ½ tsp of oil, till it turns golden brown in colour from both sides.
 Repeat with the remaining chapatis and stuffing to make 3 more parathas.
 Serve hot with fresh curds.</t>
-  </si>
-  <si>
-    <t>Energy 161 cal
-Protein 5.4 g
-Carbohydrates 17.5 g
-Fiber 2.8 g
-Fat 8.1 g
-Cholesterol 0 mg
-Sodium 263.6 mg</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/herbed-paneer-paratha-38985r</t>
@@ -3297,15 +3265,6 @@
 Serve the spinach, paneer and dal soup hot.</t>
   </si>
   <si>
-    <t>Energy 72 cal
-Protein 4.4 g
-Carbohydrates 11 g
-Fiber 1.7 g
-Fat 1.2 g
-Cholesterol 2.5 mg
-Sodium 34.7 mg</t>
-  </si>
-  <si>
     <t>https://www.tarladalal.com/spinach-paneer-and-dal-soup-4629r</t>
   </si>
   <si>
@@ -4304,13 +4263,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4319,244 +4279,32 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -4645,37 +4393,37 @@
         <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>14</v>
@@ -4684,34 +4432,34 @@
         <v>15</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>14</v>
@@ -4720,70 +4468,70 @@
         <v>15</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>14</v>
@@ -4792,68 +4540,68 @@
         <v>15</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0"/>
       <c r="J8" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>14</v>
@@ -4862,70 +4610,70 @@
         <v>15</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>14</v>
@@ -4934,34 +4682,34 @@
         <v>15</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>14</v>
@@ -4970,70 +4718,70 @@
         <v>15</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>14</v>
@@ -5042,32 +4790,32 @@
         <v>15</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>14</v>
@@ -5076,140 +4824,140 @@
         <v>15</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I16" s="0"/>
       <c r="J16" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>14</v>
@@ -5218,34 +4966,34 @@
         <v>15</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>14</v>
@@ -5254,464 +5002,462 @@
         <v>15</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I23" s="0"/>
       <c r="J23" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J24" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I26" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J27" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J28" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J30" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J31" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I32" s="0"/>
       <c r="J32" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>14</v>
@@ -5720,460 +5466,458 @@
         <v>15</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J33" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="I35" t="s" s="0">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I35" s="0"/>
       <c r="J35" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J36" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K36" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J37" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I39" s="0"/>
       <c r="J39" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I40" s="0"/>
       <c r="J40" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I41" s="0"/>
       <c r="J41" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J43" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F44" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J44" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>14</v>
@@ -6182,106 +5926,104 @@
         <v>15</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J46" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J47" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="I48" t="s" s="0">
-        <v>308</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="I48" s="0"/>
       <c r="J48" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K48" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>14</v>
@@ -6290,32 +6032,32 @@
         <v>15</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F49" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I49" s="0"/>
       <c r="J49" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K49" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>14</v>
@@ -6324,56 +6066,54 @@
         <v>15</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>326</v>
-      </c>
-      <c r="I51" t="s" s="0">
         <v>327</v>
       </c>
+      <c r="I51" s="0"/>
       <c r="J51" t="s" s="0">
         <v>21</v>
       </c>
@@ -6399,10 +6139,10 @@
         <v>331</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>332</v>
@@ -6426,7 +6166,7 @@
         <v>336</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>15</v>
@@ -6435,10 +6175,10 @@
         <v>337</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>338</v>
@@ -6465,16 +6205,16 @@
         <v>14</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s" s="0">
         <v>343</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>344</v>
@@ -6501,16 +6241,16 @@
         <v>14</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s" s="0">
         <v>349</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H55" t="s" s="0">
         <v>350</v>
@@ -6534,7 +6274,7 @@
         <v>354</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>15</v>
@@ -6543,7 +6283,7 @@
         <v>355</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="0">
         <v>356</v>
@@ -6573,7 +6313,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s" s="0">
         <v>362</v>
@@ -6609,16 +6349,16 @@
         <v>14</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s" s="0">
         <v>369</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H58" t="s" s="0">
         <v>370</v>
@@ -6645,13 +6385,13 @@
         <v>14</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s" s="0">
         <v>375</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="0">
         <v>17</v>
@@ -6678,19 +6418,19 @@
         <v>380</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s" s="0">
         <v>381</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>382</v>
@@ -6717,7 +6457,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s" s="0">
         <v>387</v>
@@ -6726,7 +6466,7 @@
         <v>17</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>388</v>
@@ -6753,13 +6493,13 @@
         <v>14</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s" s="0">
         <v>393</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>394</v>
@@ -6787,16 +6527,16 @@
         <v>14</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s" s="0">
         <v>399</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H63" t="s" s="0">
         <v>400</v>
@@ -6821,16 +6561,16 @@
         <v>14</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s" s="0">
         <v>404</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H64" t="s" s="0">
         <v>405</v>
@@ -6857,16 +6597,16 @@
         <v>14</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s" s="0">
         <v>410</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H65" t="s" s="0">
         <v>411</v>
@@ -6897,10 +6637,10 @@
         <v>416</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s" s="0">
         <v>417</v>
@@ -6924,134 +6664,132 @@
         <v>421</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I67" t="s" s="0">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J67" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K67" t="s" s="0">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I68" t="s" s="0">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J68" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K68" t="s" s="0">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D69" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J69" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K69" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>442</v>
-      </c>
-      <c r="I70" t="s" s="0">
         <v>443</v>
       </c>
+      <c r="I70" s="0"/>
       <c r="J70" t="s" s="0">
         <v>21</v>
       </c>
@@ -7068,19 +6806,19 @@
         <v>446</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s" s="0">
         <v>447</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H71" t="s" s="0">
         <v>448</v>
@@ -7104,19 +6842,19 @@
         <v>452</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s" s="0">
         <v>453</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H72" t="s" s="0">
         <v>454</v>
@@ -7140,7 +6878,7 @@
         <v>458</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s" s="0">
         <v>15</v>
@@ -7152,7 +6890,7 @@
         <v>17</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H73" t="s" s="0">
         <v>460</v>
@@ -7185,10 +6923,10 @@
         <v>466</v>
       </c>
       <c r="F74" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H74" t="s" s="0">
         <v>467</v>
@@ -7215,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s" s="0">
         <v>472</v>
@@ -7224,7 +6962,7 @@
         <v>17</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H75" t="s" s="0">
         <v>473</v>
@@ -7248,19 +6986,19 @@
         <v>477</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s" s="0">
         <v>478</v>
       </c>
       <c r="F76" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H76" t="s" s="0">
         <v>479</v>
@@ -7285,13 +7023,13 @@
         <v>14</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s" s="0">
         <v>483</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G77" t="s" s="0">
         <v>394</v>
@@ -7321,16 +7059,16 @@
         <v>14</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s" s="0">
         <v>489</v>
       </c>
       <c r="F78" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s" s="0">
         <v>490</v>
@@ -7363,10 +7101,10 @@
         <v>495</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H79" t="s" s="0">
         <v>496</v>
@@ -7399,10 +7137,10 @@
         <v>501</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H80" t="s" s="0">
         <v>502</v>
@@ -7427,16 +7165,16 @@
         <v>14</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E81" t="s" s="0">
         <v>506</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H81" t="s" s="0">
         <v>507</v>
@@ -7460,7 +7198,7 @@
         <v>511</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s" s="0">
         <v>15</v>
@@ -7469,10 +7207,10 @@
         <v>512</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s" s="0">
         <v>513</v>
@@ -7499,37 +7237,35 @@
         <v>14</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s" s="0">
         <v>518</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H83" t="s" s="0">
         <v>519</v>
       </c>
-      <c r="I83" t="s" s="0">
+      <c r="I83" s="0"/>
+      <c r="J83" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s" s="0">
         <v>520</v>
-      </c>
-      <c r="J83" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K83" t="s" s="0">
-        <v>521</v>
       </c>
       <c r="L83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="B84" t="s" s="0">
         <v>522</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>523</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>14</v>
@@ -7538,34 +7274,34 @@
         <v>15</v>
       </c>
       <c r="E84" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s" s="0">
         <v>524</v>
       </c>
-      <c r="F84" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H84" t="s" s="0">
+      <c r="I84" t="s" s="0">
         <v>525</v>
       </c>
-      <c r="I84" t="s" s="0">
+      <c r="J84" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s" s="0">
         <v>526</v>
-      </c>
-      <c r="J84" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K84" t="s" s="0">
-        <v>527</v>
       </c>
       <c r="L84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="B85" t="s" s="0">
         <v>528</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>529</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>14</v>
@@ -7574,68 +7310,68 @@
         <v>15</v>
       </c>
       <c r="E85" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H85" t="s" s="0">
         <v>530</v>
       </c>
-      <c r="F85" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H85" t="s" s="0">
+      <c r="I85" t="s" s="0">
         <v>531</v>
       </c>
-      <c r="I85" t="s" s="0">
+      <c r="J85" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s" s="0">
         <v>532</v>
-      </c>
-      <c r="J85" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K85" t="s" s="0">
-        <v>533</v>
       </c>
       <c r="L85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>534</v>
-      </c>
-      <c r="B86" t="s" s="0">
-        <v>535</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>465</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H86" t="s" s="0">
         <v>536</v>
-      </c>
-      <c r="F86" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H86" t="s" s="0">
-        <v>537</v>
       </c>
       <c r="I86" s="0"/>
       <c r="J86" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K86" t="s" s="0">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L86" s="0"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="B87" t="s" s="0">
         <v>539</v>
-      </c>
-      <c r="B87" t="s" s="0">
-        <v>540</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>14</v>
@@ -7644,32 +7380,32 @@
         <v>15</v>
       </c>
       <c r="E87" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H87" t="s" s="0">
         <v>541</v>
-      </c>
-      <c r="F87" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H87" t="s" s="0">
-        <v>542</v>
       </c>
       <c r="I87" s="0"/>
       <c r="J87" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K87" t="s" s="0">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L87" s="0"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="B88" t="s" s="0">
         <v>544</v>
-      </c>
-      <c r="B88" t="s" s="0">
-        <v>545</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>14</v>
@@ -7678,34 +7414,34 @@
         <v>15</v>
       </c>
       <c r="E88" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="H88" t="s" s="0">
         <v>546</v>
       </c>
-      <c r="F88" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="G88" t="s" s="0">
-        <v>241</v>
-      </c>
-      <c r="H88" t="s" s="0">
+      <c r="I88" t="s" s="0">
         <v>547</v>
       </c>
-      <c r="I88" t="s" s="0">
+      <c r="J88" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s" s="0">
         <v>548</v>
-      </c>
-      <c r="J88" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K88" t="s" s="0">
-        <v>549</v>
       </c>
       <c r="L88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="B89" t="s" s="0">
         <v>550</v>
-      </c>
-      <c r="B89" t="s" s="0">
-        <v>551</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>14</v>
@@ -7714,115 +7450,115 @@
         <v>15</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F89" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G89" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H89" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="I89" t="s" s="0">
         <v>553</v>
       </c>
-      <c r="I89" t="s" s="0">
+      <c r="J89" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s" s="0">
         <v>554</v>
-      </c>
-      <c r="J89" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K89" t="s" s="0">
-        <v>555</v>
       </c>
       <c r="L89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>556</v>
       </c>
-      <c r="B90" t="s" s="0">
-        <v>557</v>
-      </c>
       <c r="C90" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E90" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s" s="0">
         <v>558</v>
       </c>
-      <c r="F90" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s" s="0">
+      <c r="H90" t="s" s="0">
         <v>559</v>
       </c>
-      <c r="H90" t="s" s="0">
+      <c r="I90" t="s" s="0">
         <v>560</v>
       </c>
-      <c r="I90" t="s" s="0">
+      <c r="J90" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s" s="0">
         <v>561</v>
-      </c>
-      <c r="J90" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K90" t="s" s="0">
-        <v>562</v>
       </c>
       <c r="L90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="B91" t="s" s="0">
         <v>563</v>
       </c>
-      <c r="B91" t="s" s="0">
+      <c r="C91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s" s="0">
         <v>564</v>
-      </c>
-      <c r="C91" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D91" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E91" t="s" s="0">
-        <v>565</v>
       </c>
       <c r="F91" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G91" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H91" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="I91" t="s" s="0">
         <v>566</v>
       </c>
-      <c r="I91" t="s" s="0">
+      <c r="J91" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s" s="0">
         <v>567</v>
-      </c>
-      <c r="J91" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K91" t="s" s="0">
-        <v>568</v>
       </c>
       <c r="L91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>569</v>
-      </c>
-      <c r="B92" t="s" s="0">
-        <v>570</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F92" t="s" s="0">
         <v>17</v>
@@ -7831,97 +7567,97 @@
         <v>17</v>
       </c>
       <c r="H92" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="I92" t="s" s="0">
         <v>572</v>
       </c>
-      <c r="I92" t="s" s="0">
+      <c r="J92" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s" s="0">
         <v>573</v>
-      </c>
-      <c r="J92" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K92" t="s" s="0">
-        <v>574</v>
       </c>
       <c r="L92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>575</v>
       </c>
-      <c r="B93" t="s" s="0">
-        <v>576</v>
-      </c>
       <c r="C93" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E93" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H93" t="s" s="0">
         <v>577</v>
       </c>
-      <c r="F93" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H93" t="s" s="0">
+      <c r="I93" t="s" s="0">
         <v>578</v>
       </c>
-      <c r="I93" t="s" s="0">
+      <c r="J93" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K93" t="s" s="0">
         <v>579</v>
-      </c>
-      <c r="J93" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K93" t="s" s="0">
-        <v>580</v>
       </c>
       <c r="L93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="B94" t="s" s="0">
         <v>581</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>582</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="H94" t="s" s="0">
         <v>583</v>
       </c>
-      <c r="F94" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="H94" t="s" s="0">
+      <c r="I94" t="s" s="0">
         <v>584</v>
       </c>
-      <c r="I94" t="s" s="0">
+      <c r="J94" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s" s="0">
         <v>585</v>
-      </c>
-      <c r="J94" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K94" t="s" s="0">
-        <v>586</v>
       </c>
       <c r="L94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="B95" t="s" s="0">
         <v>587</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>588</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>14</v>
@@ -7930,115 +7666,115 @@
         <v>15</v>
       </c>
       <c r="E95" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H95" t="s" s="0">
         <v>589</v>
       </c>
-      <c r="F95" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H95" t="s" s="0">
+      <c r="I95" t="s" s="0">
         <v>590</v>
       </c>
-      <c r="I95" t="s" s="0">
+      <c r="J95" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s" s="0">
         <v>591</v>
-      </c>
-      <c r="J95" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K95" t="s" s="0">
-        <v>592</v>
       </c>
       <c r="L95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="B96" t="s" s="0">
         <v>593</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>594</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E96" t="s" s="0">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F96" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G96" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H96" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="I96" t="s" s="0">
         <v>596</v>
       </c>
-      <c r="I96" t="s" s="0">
+      <c r="J96" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s" s="0">
         <v>597</v>
-      </c>
-      <c r="J96" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K96" t="s" s="0">
-        <v>598</v>
       </c>
       <c r="L96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>599</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>600</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s" s="0">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F97" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G97" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H97" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="I97" t="s" s="0">
         <v>602</v>
       </c>
-      <c r="I97" t="s" s="0">
+      <c r="J97" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s" s="0">
         <v>603</v>
-      </c>
-      <c r="J97" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K97" t="s" s="0">
-        <v>604</v>
       </c>
       <c r="L97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B98" t="s" s="0">
         <v>605</v>
       </c>
-      <c r="B98" t="s" s="0">
+      <c r="C98" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s" s="0">
         <v>606</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D98" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E98" t="s" s="0">
-        <v>607</v>
       </c>
       <c r="F98" t="s" s="0">
         <v>17</v>
@@ -8047,61 +7783,61 @@
         <v>17</v>
       </c>
       <c r="H98" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="I98" t="s" s="0">
         <v>608</v>
       </c>
-      <c r="I98" t="s" s="0">
+      <c r="J98" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s" s="0">
         <v>609</v>
-      </c>
-      <c r="J98" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K98" t="s" s="0">
-        <v>610</v>
       </c>
       <c r="L98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="B99" t="s" s="0">
         <v>611</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>612</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s" s="0">
         <v>613</v>
       </c>
-      <c r="F99" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="H99" t="s" s="0">
+      <c r="I99" t="s" s="0">
         <v>614</v>
       </c>
-      <c r="I99" t="s" s="0">
+      <c r="J99" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s" s="0">
         <v>615</v>
-      </c>
-      <c r="J99" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s" s="0">
-        <v>616</v>
       </c>
       <c r="L99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="B100" t="s" s="0">
         <v>617</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>618</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>14</v>
@@ -8110,68 +7846,68 @@
         <v>15</v>
       </c>
       <c r="E100" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F100" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G100" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H100" t="s" s="0">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I100" s="0"/>
       <c r="J100" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K100" t="s" s="0">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="B101" t="s" s="0">
         <v>622</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>623</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E101" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s" s="0">
         <v>624</v>
       </c>
-      <c r="F101" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="G101" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H101" t="s" s="0">
+      <c r="I101" t="s" s="0">
         <v>625</v>
       </c>
-      <c r="I101" t="s" s="0">
+      <c r="J101" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s" s="0">
         <v>626</v>
-      </c>
-      <c r="J101" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K101" t="s" s="0">
-        <v>627</v>
       </c>
       <c r="L101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="B102" t="s" s="0">
         <v>628</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>629</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>14</v>
@@ -8180,66 +7916,66 @@
         <v>15</v>
       </c>
       <c r="E102" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s" s="0">
         <v>630</v>
-      </c>
-      <c r="F102" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="H102" t="s" s="0">
-        <v>631</v>
       </c>
       <c r="I102" s="0"/>
       <c r="J102" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K102" t="s" s="0">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="B103" t="s" s="0">
         <v>633</v>
       </c>
-      <c r="B103" t="s" s="0">
+      <c r="C103" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E103" t="s" s="0">
         <v>634</v>
       </c>
-      <c r="C103" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D103" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E103" t="s" s="0">
+      <c r="F103" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H103" t="s" s="0">
         <v>635</v>
-      </c>
-      <c r="F103" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H103" t="s" s="0">
-        <v>636</v>
       </c>
       <c r="I103" s="0"/>
       <c r="J103" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K103" t="s" s="0">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="B104" t="s" s="0">
         <v>638</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>639</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>14</v>
@@ -8248,34 +7984,34 @@
         <v>15</v>
       </c>
       <c r="E104" t="s" s="0">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F104" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H104" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="I104" t="s" s="0">
         <v>641</v>
       </c>
-      <c r="I104" t="s" s="0">
+      <c r="J104" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K104" t="s" s="0">
         <v>642</v>
-      </c>
-      <c r="J104" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K104" t="s" s="0">
-        <v>643</v>
       </c>
       <c r="L104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="B105" t="s" s="0">
         <v>644</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>645</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>14</v>
@@ -8284,32 +8020,32 @@
         <v>15</v>
       </c>
       <c r="E105" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H105" t="s" s="0">
         <v>646</v>
-      </c>
-      <c r="F105" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H105" t="s" s="0">
-        <v>647</v>
       </c>
       <c r="I105" s="0"/>
       <c r="J105" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K105" t="s" s="0">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="B106" t="s" s="0">
         <v>649</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>650</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>465</v>
@@ -8318,106 +8054,106 @@
         <v>15</v>
       </c>
       <c r="E106" t="s" s="0">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F106" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G106" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H106" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="I106" t="s" s="0">
         <v>652</v>
       </c>
-      <c r="I106" t="s" s="0">
+      <c r="J106" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K106" t="s" s="0">
         <v>653</v>
-      </c>
-      <c r="J106" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K106" t="s" s="0">
-        <v>654</v>
       </c>
       <c r="L106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="B107" t="s" s="0">
         <v>655</v>
       </c>
-      <c r="B107" t="s" s="0">
-        <v>656</v>
-      </c>
       <c r="C107" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E107" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H107" t="s" s="0">
         <v>657</v>
       </c>
-      <c r="F107" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H107" t="s" s="0">
+      <c r="I107" t="s" s="0">
         <v>658</v>
       </c>
-      <c r="I107" t="s" s="0">
+      <c r="J107" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s" s="0">
         <v>659</v>
-      </c>
-      <c r="J107" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K107" t="s" s="0">
-        <v>660</v>
       </c>
       <c r="L107" s="0"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="B108" t="s" s="0">
         <v>661</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>662</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E108" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H108" t="s" s="0">
         <v>663</v>
       </c>
-      <c r="F108" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H108" t="s" s="0">
+      <c r="I108" t="s" s="0">
         <v>664</v>
       </c>
-      <c r="I108" t="s" s="0">
+      <c r="J108" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s" s="0">
         <v>665</v>
-      </c>
-      <c r="J108" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K108" t="s" s="0">
-        <v>666</v>
       </c>
       <c r="L108" s="0"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="B109" t="s" s="0">
         <v>667</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>668</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>14</v>
@@ -8426,59 +8162,59 @@
         <v>15</v>
       </c>
       <c r="E109" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H109" t="s" s="0">
         <v>669</v>
       </c>
-      <c r="F109" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="G109" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="H109" t="s" s="0">
+      <c r="I109" t="s" s="0">
         <v>670</v>
       </c>
-      <c r="I109" t="s" s="0">
+      <c r="J109" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s" s="0">
         <v>671</v>
-      </c>
-      <c r="J109" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="K109" t="s" s="0">
-        <v>672</v>
       </c>
       <c r="L109" s="0"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="B110" t="s" s="0">
         <v>673</v>
       </c>
-      <c r="B110" t="s" s="0">
-        <v>674</v>
-      </c>
       <c r="C110" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E110" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H110" t="s" s="0">
         <v>675</v>
-      </c>
-      <c r="F110" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="H110" t="s" s="0">
-        <v>676</v>
       </c>
       <c r="I110" s="0"/>
       <c r="J110" t="s" s="0">
         <v>21</v>
       </c>
       <c r="K110" t="s" s="0">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L110" s="0"/>
     </row>
